--- a/DC/dffd.xlsx
+++ b/DC/dffd.xlsx
@@ -349,11 +349,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="184729344"/>
-        <c:axId val="184587392"/>
+        <c:axId val="393170888"/>
+        <c:axId val="393171280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184729344"/>
+        <c:axId val="393170888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,12 +410,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184587392"/>
+        <c:crossAx val="393171280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184587392"/>
+        <c:axId val="393171280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +472,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184729344"/>
+        <c:crossAx val="393170888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -536,7 +536,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -705,11 +704,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240170592"/>
-        <c:axId val="240170984"/>
+        <c:axId val="393181472"/>
+        <c:axId val="393181864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240170592"/>
+        <c:axId val="393181472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -766,12 +765,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240170984"/>
+        <c:crossAx val="393181864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240170984"/>
+        <c:axId val="393181864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +827,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240170592"/>
+        <c:crossAx val="393181472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -892,7 +891,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1011,11 +1009,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240171768"/>
-        <c:axId val="240172160"/>
+        <c:axId val="401428544"/>
+        <c:axId val="401428936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240171768"/>
+        <c:axId val="401428544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1072,12 +1070,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240172160"/>
+        <c:crossAx val="401428936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240172160"/>
+        <c:axId val="401428936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1132,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240171768"/>
+        <c:crossAx val="401428544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1826,11 +1824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240217544"/>
-        <c:axId val="240521256"/>
+        <c:axId val="393172064"/>
+        <c:axId val="393172456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240217544"/>
+        <c:axId val="393172064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1887,12 +1885,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240521256"/>
+        <c:crossAx val="393172456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240521256"/>
+        <c:axId val="393172456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1947,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240217544"/>
+        <c:crossAx val="393172064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2241,11 +2239,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240623824"/>
-        <c:axId val="240297888"/>
+        <c:axId val="393173240"/>
+        <c:axId val="393173632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240623824"/>
+        <c:axId val="393173240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,12 +2300,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240297888"/>
+        <c:crossAx val="393173632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240297888"/>
+        <c:axId val="393173632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2362,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240623824"/>
+        <c:crossAx val="393173240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3279,11 +3277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="183898848"/>
-        <c:axId val="183899240"/>
+        <c:axId val="393174416"/>
+        <c:axId val="393174808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183898848"/>
+        <c:axId val="393174416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3340,12 +3338,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183899240"/>
+        <c:crossAx val="393174808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183899240"/>
+        <c:axId val="393174808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,7 +3400,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183898848"/>
+        <c:crossAx val="393174416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3815,11 +3813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240165104"/>
-        <c:axId val="240165496"/>
+        <c:axId val="393175592"/>
+        <c:axId val="393175984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240165104"/>
+        <c:axId val="393175592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,12 +3874,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240165496"/>
+        <c:crossAx val="393175984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240165496"/>
+        <c:axId val="393175984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3938,7 +3936,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240165104"/>
+        <c:crossAx val="393175592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4034,7 +4032,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4158,11 +4155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240166672"/>
-        <c:axId val="240167064"/>
+        <c:axId val="393176768"/>
+        <c:axId val="393177160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240166672"/>
+        <c:axId val="393176768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,12 +4216,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240167064"/>
+        <c:crossAx val="393177160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240167064"/>
+        <c:axId val="393177160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4281,7 +4278,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240166672"/>
+        <c:crossAx val="393176768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4345,7 +4342,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4458,11 +4454,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240167848"/>
-        <c:axId val="240168240"/>
+        <c:axId val="393177944"/>
+        <c:axId val="393178336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240167848"/>
+        <c:axId val="393177944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4519,12 +4515,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240168240"/>
+        <c:crossAx val="393178336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240168240"/>
+        <c:axId val="393178336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4581,7 +4577,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240167848"/>
+        <c:crossAx val="393177944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4645,7 +4641,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4764,11 +4759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240169024"/>
-        <c:axId val="240169416"/>
+        <c:axId val="393179120"/>
+        <c:axId val="393179512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240169024"/>
+        <c:axId val="393179120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4825,12 +4820,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240169416"/>
+        <c:crossAx val="393179512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240169416"/>
+        <c:axId val="393179512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4887,7 +4882,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240169024"/>
+        <c:crossAx val="393179120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4951,7 +4946,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5120,11 +5114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240166280"/>
-        <c:axId val="240164712"/>
+        <c:axId val="393180296"/>
+        <c:axId val="393180688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240166280"/>
+        <c:axId val="393180296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5181,12 +5175,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240164712"/>
+        <c:crossAx val="393180688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240164712"/>
+        <c:axId val="393180688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5243,7 +5237,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240166280"/>
+        <c:crossAx val="393180296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12047,8 +12041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:G62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13422,7 +13416,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:G24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13983,8 +13977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DC/dffd.xlsx
+++ b/DC/dffd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Hz vs overvoltage" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,16 @@
     <sheet name="Лист3" sheetId="5" r:id="rId4"/>
     <sheet name="line" sheetId="2" r:id="rId5"/>
     <sheet name="Лист2" sheetId="4" r:id="rId6"/>
-    <sheet name="exp" sheetId="3" r:id="rId7"/>
+    <sheet name="t_dead" sheetId="9" r:id="rId7"/>
+    <sheet name="exp" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>T</t>
   </si>
@@ -98,6 +100,27 @@
   </si>
   <si>
     <t>Nof</t>
+  </si>
+  <si>
+    <t>t_dead [ns]</t>
+  </si>
+  <si>
+    <t>295K</t>
+  </si>
+  <si>
+    <t>73V</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>amp [mV]</t>
+  </si>
+  <si>
+    <t>no_filter</t>
   </si>
 </sst>
 </file>
@@ -349,11 +372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393170888"/>
-        <c:axId val="393171280"/>
+        <c:axId val="404085392"/>
+        <c:axId val="404085784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393170888"/>
+        <c:axId val="404085392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,12 +433,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393171280"/>
+        <c:crossAx val="404085784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393171280"/>
+        <c:axId val="404085784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -472,7 +495,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393170888"/>
+        <c:crossAx val="404085392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -522,6 +545,666 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>exp!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44395000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42817</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39990999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38303999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42386000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406542856"/>
+        <c:axId val="406543248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406542856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406543248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406543248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406542856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10337817147856518"/>
+                  <c:y val="3.7890419947506561E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>exp!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>exp!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>63771.392099999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131069.02881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222266.05481999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>297000.76160999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>433744.08481999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406139168"/>
+        <c:axId val="406139560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406139168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406139560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406139560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406139168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -704,11 +1387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393181472"/>
-        <c:axId val="393181864"/>
+        <c:axId val="406140344"/>
+        <c:axId val="406140736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393181472"/>
+        <c:axId val="406140344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,12 +1448,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393181864"/>
+        <c:crossAx val="406140736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393181864"/>
+        <c:axId val="406140736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,7 +1510,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393181472"/>
+        <c:crossAx val="406140344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -876,7 +1559,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1009,11 +1692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401428544"/>
-        <c:axId val="401428936"/>
+        <c:axId val="406141520"/>
+        <c:axId val="406141912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401428544"/>
+        <c:axId val="406141520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,12 +1753,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401428936"/>
+        <c:crossAx val="406141912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401428936"/>
+        <c:axId val="406141912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,7 +1815,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401428544"/>
+        <c:crossAx val="406141520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1824,11 +2507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393172064"/>
-        <c:axId val="393172456"/>
+        <c:axId val="406535800"/>
+        <c:axId val="406536192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393172064"/>
+        <c:axId val="406535800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1885,12 +2568,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393172456"/>
+        <c:crossAx val="406536192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393172456"/>
+        <c:axId val="406536192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +2630,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393172064"/>
+        <c:crossAx val="406535800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2239,11 +2922,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393173240"/>
-        <c:axId val="393173632"/>
+        <c:axId val="406536976"/>
+        <c:axId val="406537368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393173240"/>
+        <c:axId val="406536976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,12 +2983,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393173632"/>
+        <c:crossAx val="406537368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393173632"/>
+        <c:axId val="406537368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +3045,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393173240"/>
+        <c:crossAx val="406536976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3277,11 +3960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393174416"/>
-        <c:axId val="393174808"/>
+        <c:axId val="406539720"/>
+        <c:axId val="406540112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393174416"/>
+        <c:axId val="406539720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,12 +4021,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393174808"/>
+        <c:crossAx val="406540112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393174808"/>
+        <c:axId val="406540112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +4083,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393174416"/>
+        <c:crossAx val="406539720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3813,11 +4496,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393175592"/>
-        <c:axId val="393175984"/>
+        <c:axId val="406540896"/>
+        <c:axId val="406541288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393175592"/>
+        <c:axId val="406540896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,12 +4557,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393175984"/>
+        <c:crossAx val="406541288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393175984"/>
+        <c:axId val="406541288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3936,7 +4619,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393175592"/>
+        <c:crossAx val="406540896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4155,11 +4838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393176768"/>
-        <c:axId val="393177160"/>
+        <c:axId val="406539328"/>
+        <c:axId val="406538936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393176768"/>
+        <c:axId val="406539328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,12 +4899,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393177160"/>
+        <c:crossAx val="406538936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393177160"/>
+        <c:axId val="406538936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,7 +4961,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393176768"/>
+        <c:crossAx val="406539328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4454,11 +5137,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393177944"/>
-        <c:axId val="393178336"/>
+        <c:axId val="406542072"/>
+        <c:axId val="406538152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393177944"/>
+        <c:axId val="406542072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4515,12 +5198,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393178336"/>
+        <c:crossAx val="406538152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393178336"/>
+        <c:axId val="406538152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,7 +5260,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393177944"/>
+        <c:crossAx val="406542072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4641,6 +5324,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4703,48 +5387,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>exp!$A$2:$A$6</c:f>
+              <c:f>t_dead!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>265</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>285</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>295</c:v>
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>exp!$F$2:$F$6</c:f>
+              <c:f>t_dead!$C$2:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.44395000000000001</c:v>
+                  <c:v>2034970</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42817</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.39990999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.38303999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42386000000000001</c:v>
+                  <c:v>1131830</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>634311</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>394184</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>300026</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>248689</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>129937</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>121735</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>70124.2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>67924.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>72692.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>45140.3</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>18668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4759,11 +5491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393179120"/>
-        <c:axId val="393179512"/>
+        <c:axId val="207252480"/>
+        <c:axId val="207253656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393179120"/>
+        <c:axId val="207252480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4820,12 +5552,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393179512"/>
+        <c:crossAx val="207253656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393179512"/>
+        <c:axId val="207253656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4845,7 +5577,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4882,7 +5614,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393179120"/>
+        <c:crossAx val="207252480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4946,6 +5678,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5006,100 +5739,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10337817147856518"/>
-                  <c:y val="3.7890419947506561E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ru-RU"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>exp!$A$2:$A$6</c:f>
+              <c:f>t_dead!$A$27:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>265</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>285</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>290</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>295</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>exp!$B$2:$B$6</c:f>
+              <c:f>t_dead!$C$27:$C$35</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>63771.392099999997</c:v>
+                  <c:v>2490210</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131069.02881</c:v>
+                  <c:v>2463570</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>222266.05481999999</c:v>
+                  <c:v>2435770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>297000.76160999999</c:v>
+                  <c:v>2401220</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>433744.08481999999</c:v>
+                  <c:v>2325730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2291830</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5114,11 +5803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393180296"/>
-        <c:axId val="393180688"/>
+        <c:axId val="207251696"/>
+        <c:axId val="207254048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393180296"/>
+        <c:axId val="207251696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5175,12 +5864,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393180688"/>
+        <c:crossAx val="207254048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393180688"/>
+        <c:axId val="207254048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,7 +5889,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5237,7 +5926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393180296"/>
+        <c:crossAx val="207251696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5367,6 +6056,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7274,6 +8043,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11628,6 +13429,71 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12041,8 +13907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13977,8 +15843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15774,6 +17640,227 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>1*4</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2034970</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>4*10</f>
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1131830</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>20*4</f>
+        <v>80</v>
+      </c>
+      <c r="C4">
+        <v>634311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>30*4</f>
+        <v>120</v>
+      </c>
+      <c r="C5">
+        <v>394184</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>40*4</f>
+        <v>160</v>
+      </c>
+      <c r="C6">
+        <v>300026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>50*4</f>
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <v>248689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>60*4</f>
+        <v>240</v>
+      </c>
+      <c r="C8">
+        <v>129937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>70*4</f>
+        <v>280</v>
+      </c>
+      <c r="C9">
+        <v>121735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>80*4</f>
+        <v>320</v>
+      </c>
+      <c r="C10">
+        <v>70124.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>90*4</f>
+        <v>360</v>
+      </c>
+      <c r="C11">
+        <v>67924.399999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>100*4</f>
+        <v>400</v>
+      </c>
+      <c r="C12">
+        <v>72692.399999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>110*4</f>
+        <v>440</v>
+      </c>
+      <c r="C13">
+        <v>45140.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>150*4</f>
+        <v>600</v>
+      </c>
+      <c r="C15">
+        <v>18668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2490210</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2463570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2435770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2401220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2325730</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2291830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/DC/dffd.xlsx
+++ b/DC/dffd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Hz vs overvoltage" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="line" sheetId="2" r:id="rId5"/>
     <sheet name="Лист2" sheetId="4" r:id="rId6"/>
     <sheet name="t_dead" sheetId="9" r:id="rId7"/>
-    <sheet name="exp" sheetId="3" r:id="rId8"/>
+    <sheet name="Лист4" sheetId="10" r:id="rId8"/>
+    <sheet name="exp" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -17642,7 +17643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -17860,6 +17861,1069 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:E131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="2">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1.67187E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7.2656300000000004E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>5.5468699999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1.4062499999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2.0312500000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>9.9218699999999993E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2.25781E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3.8828099999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>7.1484400000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>0.126641</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>0.22031200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>0.353047</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>0.52468700000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>0.69914100000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>0.85515600000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>0.97242200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>1.0623400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>1.13828</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1.1988300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1.2324999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1.24211</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1.2390600000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1.2301599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1.21898</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1.19289</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>1.18344</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1.18242</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>1.1942200000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>1.2085900000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>1.22281</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>1.2267999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>1.2226600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>1.21695</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>1.21672</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>1.2128099999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>1.21766</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>1.22516</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>1.23508</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>1.23969</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>1.24227</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>1.2432000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>1.2475000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>1.25156</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>1.2503899999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>1.2485900000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>1.24891</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>1.24953</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>1.2521100000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>1.25305</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>1.2603899999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>1.26555</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D53" s="2">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>1.2696099999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <v>1.2678100000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>1.2685200000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D56" s="2">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>1.26156</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D57" s="2">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>1.25648</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D58" s="2">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>1.25258</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="2">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>1.2511699999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="2">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>1.25227</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="2">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>1.2567999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D62" s="2">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <v>1.25875</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="2">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>1.2599199999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="2">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <v>1.26078</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="2">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <v>1.2591399999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="2">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <v>1.2567999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="2">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>1.2568699999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <v>1.2544500000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="2">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <v>1.2565599999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="2">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <v>1.2598400000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="2">
+        <v>70</v>
+      </c>
+      <c r="E71">
+        <v>1.26125</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D72" s="2">
+        <v>71</v>
+      </c>
+      <c r="E72">
+        <v>1.2613300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="2">
+        <v>72</v>
+      </c>
+      <c r="E73">
+        <v>1.25539</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="2">
+        <v>73</v>
+      </c>
+      <c r="E74">
+        <v>1.24492</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="2">
+        <v>74</v>
+      </c>
+      <c r="E75">
+        <v>1.2385200000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>1.2354700000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77">
+        <v>1.2353099999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78">
+        <v>1.2383599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="2">
+        <v>78</v>
+      </c>
+      <c r="E79">
+        <v>1.24305</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="2">
+        <v>79</v>
+      </c>
+      <c r="E80">
+        <v>1.2478899999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81">
+        <v>1.25617</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="2">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <v>1.2646900000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D83" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83">
+        <v>1.27508</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84">
+        <v>1.2764800000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="2">
+        <v>84</v>
+      </c>
+      <c r="E85">
+        <v>1.2775000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="2">
+        <v>85</v>
+      </c>
+      <c r="E86">
+        <v>1.27688</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" s="2">
+        <v>86</v>
+      </c>
+      <c r="E87">
+        <v>1.27539</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="2">
+        <v>87</v>
+      </c>
+      <c r="E88">
+        <v>1.2708600000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="2">
+        <v>88</v>
+      </c>
+      <c r="E89">
+        <v>1.27078</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="2">
+        <v>89</v>
+      </c>
+      <c r="E90">
+        <v>1.2629699999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="2">
+        <v>90</v>
+      </c>
+      <c r="E91">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="2">
+        <v>91</v>
+      </c>
+      <c r="E92">
+        <v>1.2552300000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" s="2">
+        <v>92</v>
+      </c>
+      <c r="E93">
+        <v>1.2560899999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="2">
+        <v>93</v>
+      </c>
+      <c r="E94">
+        <v>1.2528900000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" s="2">
+        <v>94</v>
+      </c>
+      <c r="E95">
+        <v>1.2513300000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="2">
+        <v>95</v>
+      </c>
+      <c r="E96">
+        <v>1.2527299999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="2">
+        <v>96</v>
+      </c>
+      <c r="E97">
+        <v>1.2501599999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="2">
+        <v>97</v>
+      </c>
+      <c r="E98">
+        <v>1.2460899999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="2">
+        <v>98</v>
+      </c>
+      <c r="E99">
+        <v>1.2490600000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="2">
+        <v>99</v>
+      </c>
+      <c r="E100">
+        <v>1.2493700000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="2">
+        <v>100</v>
+      </c>
+      <c r="E101">
+        <v>1.2509399999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="2">
+        <v>101</v>
+      </c>
+      <c r="E102">
+        <v>1.25031</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" s="2">
+        <v>102</v>
+      </c>
+      <c r="E103">
+        <v>1.2567200000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" s="2">
+        <v>103</v>
+      </c>
+      <c r="E104">
+        <v>1.25891</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" s="2">
+        <v>104</v>
+      </c>
+      <c r="E105">
+        <v>1.2621100000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" s="2">
+        <v>105</v>
+      </c>
+      <c r="E106">
+        <v>1.26203</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" s="2">
+        <v>106</v>
+      </c>
+      <c r="E107">
+        <v>1.26172</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" s="2">
+        <v>107</v>
+      </c>
+      <c r="E108">
+        <v>1.26359</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" s="2">
+        <v>108</v>
+      </c>
+      <c r="E109">
+        <v>1.26234</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" s="2">
+        <v>109</v>
+      </c>
+      <c r="E110">
+        <v>1.26203</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111" s="2">
+        <v>110</v>
+      </c>
+      <c r="E111">
+        <v>1.2645299999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D112" s="2">
+        <v>111</v>
+      </c>
+      <c r="E112">
+        <v>1.26328</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D113" s="2">
+        <v>112</v>
+      </c>
+      <c r="E113">
+        <v>1.26203</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D114" s="2">
+        <v>113</v>
+      </c>
+      <c r="E114">
+        <v>1.26203</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D115" s="2">
+        <v>114</v>
+      </c>
+      <c r="E115">
+        <v>1.26125</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D116" s="2">
+        <v>115</v>
+      </c>
+      <c r="E116">
+        <v>1.2619499999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D117" s="2">
+        <v>116</v>
+      </c>
+      <c r="E117">
+        <v>1.26227</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D118" s="2">
+        <v>117</v>
+      </c>
+      <c r="E118">
+        <v>1.2613300000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D119" s="2">
+        <v>118</v>
+      </c>
+      <c r="E119">
+        <v>1.2596099999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D120" s="2">
+        <v>119</v>
+      </c>
+      <c r="E120">
+        <v>1.26023</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D121" s="2">
+        <v>120</v>
+      </c>
+      <c r="E121">
+        <v>1.25898</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D122" s="2">
+        <v>121</v>
+      </c>
+      <c r="E122">
+        <v>1.2580499999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D123" s="2">
+        <v>122</v>
+      </c>
+      <c r="E123">
+        <v>1.25797</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D124" s="2">
+        <v>123</v>
+      </c>
+      <c r="E124">
+        <v>1.25461</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D125" s="2">
+        <v>124</v>
+      </c>
+      <c r="E125">
+        <v>1.2568699999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D126" s="2">
+        <v>125</v>
+      </c>
+      <c r="E126">
+        <v>1.2565599999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D127" s="2">
+        <v>126</v>
+      </c>
+      <c r="E127">
+        <v>1.25742</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D128" s="2">
+        <v>127</v>
+      </c>
+      <c r="E128">
+        <v>1.2575000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D129" s="2">
+        <v>128</v>
+      </c>
+      <c r="E129">
+        <v>1.25586</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D130" s="2">
+        <v>129</v>
+      </c>
+      <c r="E130">
+        <v>1.2544500000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D131" s="2">
+        <v>130</v>
+      </c>
+      <c r="E131">
+        <v>1.25406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>

--- a/DC/dffd.xlsx
+++ b/DC/dffd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hz vs overvoltage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="exp" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -207,7 +206,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -373,11 +371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404085392"/>
-        <c:axId val="404085784"/>
+        <c:axId val="214053696"/>
+        <c:axId val="214054088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404085392"/>
+        <c:axId val="214053696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,12 +432,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404085784"/>
+        <c:crossAx val="214054088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="404085784"/>
+        <c:axId val="214054088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -496,7 +494,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404085392"/>
+        <c:crossAx val="214053696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -678,11 +676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406542856"/>
-        <c:axId val="406543248"/>
+        <c:axId val="504358464"/>
+        <c:axId val="504358856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406542856"/>
+        <c:axId val="504358464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,12 +737,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406543248"/>
+        <c:crossAx val="504358856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406543248"/>
+        <c:axId val="504358856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +799,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406542856"/>
+        <c:crossAx val="504358464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1033,11 +1031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406139168"/>
-        <c:axId val="406139560"/>
+        <c:axId val="504359640"/>
+        <c:axId val="504360032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406139168"/>
+        <c:axId val="504359640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,12 +1092,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406139560"/>
+        <c:crossAx val="504360032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406139560"/>
+        <c:axId val="504360032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1154,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406139168"/>
+        <c:crossAx val="504359640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1388,11 +1386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406140344"/>
-        <c:axId val="406140736"/>
+        <c:axId val="213945536"/>
+        <c:axId val="213945928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406140344"/>
+        <c:axId val="213945536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,12 +1447,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406140736"/>
+        <c:crossAx val="213945928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406140736"/>
+        <c:axId val="213945928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,7 +1509,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406140344"/>
+        <c:crossAx val="213945536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1693,11 +1691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406141520"/>
-        <c:axId val="406141912"/>
+        <c:axId val="213946712"/>
+        <c:axId val="213947104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406141520"/>
+        <c:axId val="213946712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1754,12 +1752,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406141912"/>
+        <c:crossAx val="213947104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406141912"/>
+        <c:axId val="213947104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +1814,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406141520"/>
+        <c:crossAx val="213946712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2508,11 +2506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406535800"/>
-        <c:axId val="406536192"/>
+        <c:axId val="590784608"/>
+        <c:axId val="590785000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406535800"/>
+        <c:axId val="590784608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,12 +2567,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406536192"/>
+        <c:crossAx val="590785000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406536192"/>
+        <c:axId val="590785000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2629,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406535800"/>
+        <c:crossAx val="590784608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2736,7 +2734,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2923,11 +2920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406536976"/>
-        <c:axId val="406537368"/>
+        <c:axId val="590785784"/>
+        <c:axId val="590786176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406536976"/>
+        <c:axId val="590785784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,12 +2981,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406537368"/>
+        <c:crossAx val="590786176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406537368"/>
+        <c:axId val="590786176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3043,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406536976"/>
+        <c:crossAx val="590785784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3664,7 +3661,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3961,11 +3957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406539720"/>
-        <c:axId val="406540112"/>
+        <c:axId val="590786960"/>
+        <c:axId val="590787352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406539720"/>
+        <c:axId val="590786960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,12 +4018,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406540112"/>
+        <c:crossAx val="590787352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406540112"/>
+        <c:axId val="590787352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,7 +4080,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406539720"/>
+        <c:crossAx val="590786960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4098,7 +4094,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4497,11 +4492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406540896"/>
-        <c:axId val="406541288"/>
+        <c:axId val="590788136"/>
+        <c:axId val="303124280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406540896"/>
+        <c:axId val="590788136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4558,12 +4553,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406541288"/>
+        <c:crossAx val="303124280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406541288"/>
+        <c:axId val="303124280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4620,7 +4615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406540896"/>
+        <c:crossAx val="590788136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4839,11 +4834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406539328"/>
-        <c:axId val="406538936"/>
+        <c:axId val="303125064"/>
+        <c:axId val="303125456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406539328"/>
+        <c:axId val="303125064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4900,12 +4895,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406538936"/>
+        <c:crossAx val="303125456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406538936"/>
+        <c:axId val="303125456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4962,7 +4957,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406539328"/>
+        <c:crossAx val="303125064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5138,11 +5133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="406542072"/>
-        <c:axId val="406538152"/>
+        <c:axId val="303126240"/>
+        <c:axId val="303126632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="406542072"/>
+        <c:axId val="303126240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,12 +5194,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406538152"/>
+        <c:crossAx val="303126632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="406538152"/>
+        <c:axId val="303126632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406542072"/>
+        <c:crossAx val="303126240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5325,7 +5320,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5492,11 +5486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207252480"/>
-        <c:axId val="207253656"/>
+        <c:axId val="303127416"/>
+        <c:axId val="303127808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207252480"/>
+        <c:axId val="303127416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5553,12 +5547,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207253656"/>
+        <c:crossAx val="303127808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207253656"/>
+        <c:axId val="303127808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5615,7 +5609,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207252480"/>
+        <c:crossAx val="303127416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5679,7 +5673,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5804,11 +5797,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="207251696"/>
-        <c:axId val="207254048"/>
+        <c:axId val="504357288"/>
+        <c:axId val="504357680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="207251696"/>
+        <c:axId val="504357288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5865,12 +5858,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207254048"/>
+        <c:crossAx val="504357680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="207254048"/>
+        <c:axId val="504357680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5927,7 +5920,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207251696"/>
+        <c:crossAx val="504357288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15282,8 +15275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17864,7 +17857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/DC/dffd.xlsx
+++ b/DC/dffd.xlsx
@@ -371,11 +371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214053696"/>
-        <c:axId val="214054088"/>
+        <c:axId val="189331288"/>
+        <c:axId val="189331672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214053696"/>
+        <c:axId val="189331288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,12 +432,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214054088"/>
+        <c:crossAx val="189331672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214054088"/>
+        <c:axId val="189331672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +494,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214053696"/>
+        <c:crossAx val="189331288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -676,11 +676,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504358464"/>
-        <c:axId val="504358856"/>
+        <c:axId val="189871488"/>
+        <c:axId val="189871880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504358464"/>
+        <c:axId val="189871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,12 +737,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504358856"/>
+        <c:crossAx val="189871880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504358856"/>
+        <c:axId val="189871880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +799,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504358464"/>
+        <c:crossAx val="189871488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1031,11 +1031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504359640"/>
-        <c:axId val="504360032"/>
+        <c:axId val="189872664"/>
+        <c:axId val="147238248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504359640"/>
+        <c:axId val="189872664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,12 +1092,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504360032"/>
+        <c:crossAx val="147238248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504360032"/>
+        <c:axId val="147238248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504359640"/>
+        <c:crossAx val="189872664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,11 +1386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213945536"/>
-        <c:axId val="213945928"/>
+        <c:axId val="147237464"/>
+        <c:axId val="147237072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213945536"/>
+        <c:axId val="147237464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,12 +1447,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213945928"/>
+        <c:crossAx val="147237072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213945928"/>
+        <c:axId val="147237072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1509,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213945536"/>
+        <c:crossAx val="147237464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1691,11 +1691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213946712"/>
-        <c:axId val="213947104"/>
+        <c:axId val="191141920"/>
+        <c:axId val="191142312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213946712"/>
+        <c:axId val="191141920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,12 +1752,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213947104"/>
+        <c:crossAx val="191142312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213947104"/>
+        <c:axId val="191142312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1814,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213946712"/>
+        <c:crossAx val="191141920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2506,11 +2506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="590784608"/>
-        <c:axId val="590785000"/>
+        <c:axId val="189309592"/>
+        <c:axId val="190230064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="590784608"/>
+        <c:axId val="189309592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,12 +2567,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590785000"/>
+        <c:crossAx val="190230064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590785000"/>
+        <c:axId val="190230064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2629,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590784608"/>
+        <c:crossAx val="189309592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2920,11 +2920,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="590785784"/>
-        <c:axId val="590786176"/>
+        <c:axId val="189304200"/>
+        <c:axId val="189351480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="590785784"/>
+        <c:axId val="189304200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,12 +2981,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590786176"/>
+        <c:crossAx val="189351480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590786176"/>
+        <c:axId val="189351480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3043,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590785784"/>
+        <c:crossAx val="189304200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3957,11 +3957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="590786960"/>
-        <c:axId val="590787352"/>
+        <c:axId val="147238640"/>
+        <c:axId val="147239032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="590786960"/>
+        <c:axId val="147238640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,12 +4018,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590787352"/>
+        <c:crossAx val="147239032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590787352"/>
+        <c:axId val="147239032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4080,7 +4080,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590786960"/>
+        <c:crossAx val="147238640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4492,11 +4492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="590788136"/>
-        <c:axId val="303124280"/>
+        <c:axId val="189866000"/>
+        <c:axId val="189866392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="590788136"/>
+        <c:axId val="189866000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,12 +4553,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303124280"/>
+        <c:crossAx val="189866392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303124280"/>
+        <c:axId val="189866392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,7 +4615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590788136"/>
+        <c:crossAx val="189866000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4834,11 +4834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303125064"/>
-        <c:axId val="303125456"/>
+        <c:axId val="189867176"/>
+        <c:axId val="189867568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303125064"/>
+        <c:axId val="189867176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,12 +4895,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303125456"/>
+        <c:crossAx val="189867568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303125456"/>
+        <c:axId val="189867568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4957,7 +4957,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303125064"/>
+        <c:crossAx val="189867176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5133,11 +5133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303126240"/>
-        <c:axId val="303126632"/>
+        <c:axId val="189868352"/>
+        <c:axId val="189868744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303126240"/>
+        <c:axId val="189868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,12 +5194,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303126632"/>
+        <c:crossAx val="189868744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303126632"/>
+        <c:axId val="189868744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5256,7 +5256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303126240"/>
+        <c:crossAx val="189868352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5486,11 +5486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303127416"/>
-        <c:axId val="303127808"/>
+        <c:axId val="189865608"/>
+        <c:axId val="189869528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303127416"/>
+        <c:axId val="189865608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,12 +5547,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303127808"/>
+        <c:crossAx val="189869528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303127808"/>
+        <c:axId val="189869528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,7 +5609,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303127416"/>
+        <c:crossAx val="189865608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5797,11 +5797,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504357288"/>
-        <c:axId val="504357680"/>
+        <c:axId val="189870312"/>
+        <c:axId val="189870704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504357288"/>
+        <c:axId val="189870312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,12 +5858,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504357680"/>
+        <c:crossAx val="189870704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504357680"/>
+        <c:axId val="189870704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5920,7 +5920,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504357288"/>
+        <c:crossAx val="189870312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15276,7 +15276,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15579,7 +15579,7 @@
         <v>285</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
+        <f>C14+D14</f>
         <v>71.460999999999999</v>
       </c>
       <c r="C14">

--- a/DC/dffd.xlsx
+++ b/DC/dffd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hz vs overvoltage" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="total" sheetId="8" r:id="rId3"/>
     <sheet name="Лист3" sheetId="5" r:id="rId4"/>
     <sheet name="line" sheetId="2" r:id="rId5"/>
-    <sheet name="Лист2" sheetId="4" r:id="rId6"/>
+    <sheet name="E_band" sheetId="4" r:id="rId6"/>
     <sheet name="t_dead" sheetId="9" r:id="rId7"/>
     <sheet name="Лист4" sheetId="10" r:id="rId8"/>
     <sheet name="exp" sheetId="3" r:id="rId9"/>
@@ -206,6 +206,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -371,11 +372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189331288"/>
-        <c:axId val="189331672"/>
+        <c:axId val="226287504"/>
+        <c:axId val="226288288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189331288"/>
+        <c:axId val="226287504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -432,12 +433,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189331672"/>
+        <c:crossAx val="226288288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189331672"/>
+        <c:axId val="226288288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +495,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189331288"/>
+        <c:crossAx val="226287504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -676,11 +677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189871488"/>
-        <c:axId val="189871880"/>
+        <c:axId val="227367208"/>
+        <c:axId val="227367600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189871488"/>
+        <c:axId val="227367208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,12 +738,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189871880"/>
+        <c:crossAx val="227367600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189871880"/>
+        <c:axId val="227367600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +800,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189871488"/>
+        <c:crossAx val="227367208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1031,11 +1032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189872664"/>
-        <c:axId val="147238248"/>
+        <c:axId val="227368384"/>
+        <c:axId val="227368776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189872664"/>
+        <c:axId val="227368384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,12 +1093,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147238248"/>
+        <c:crossAx val="227368776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147238248"/>
+        <c:axId val="227368776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1155,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189872664"/>
+        <c:crossAx val="227368384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1386,11 +1387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147237464"/>
-        <c:axId val="147237072"/>
+        <c:axId val="227369560"/>
+        <c:axId val="227369952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147237464"/>
+        <c:axId val="227369560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,12 +1448,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147237072"/>
+        <c:crossAx val="227369952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147237072"/>
+        <c:axId val="227369952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1509,7 +1510,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147237464"/>
+        <c:crossAx val="227369560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1691,11 +1692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191141920"/>
-        <c:axId val="191142312"/>
+        <c:axId val="227370736"/>
+        <c:axId val="227371128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191141920"/>
+        <c:axId val="227370736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,12 +1753,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191142312"/>
+        <c:crossAx val="227371128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191142312"/>
+        <c:axId val="227371128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1815,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191141920"/>
+        <c:crossAx val="227370736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2506,11 +2507,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189309592"/>
-        <c:axId val="190230064"/>
+        <c:axId val="226289072"/>
+        <c:axId val="226289464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189309592"/>
+        <c:axId val="226289072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,12 +2568,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190230064"/>
+        <c:crossAx val="226289464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190230064"/>
+        <c:axId val="226289464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2630,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189309592"/>
+        <c:crossAx val="226289072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2920,11 +2921,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189304200"/>
-        <c:axId val="189351480"/>
+        <c:axId val="229155616"/>
+        <c:axId val="229156008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189304200"/>
+        <c:axId val="229155616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2981,12 +2982,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189351480"/>
+        <c:crossAx val="229156008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189351480"/>
+        <c:axId val="229156008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3043,7 +3044,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189304200"/>
+        <c:crossAx val="229155616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3957,11 +3958,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147238640"/>
-        <c:axId val="147239032"/>
+        <c:axId val="229158360"/>
+        <c:axId val="229158752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147238640"/>
+        <c:axId val="229158360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,12 +4019,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147239032"/>
+        <c:crossAx val="229158752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147239032"/>
+        <c:axId val="229158752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4080,7 +4081,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147238640"/>
+        <c:crossAx val="229158360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4492,11 +4493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189866000"/>
-        <c:axId val="189866392"/>
+        <c:axId val="229159536"/>
+        <c:axId val="229159928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189866000"/>
+        <c:axId val="229159536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,12 +4554,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189866392"/>
+        <c:crossAx val="229159928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189866392"/>
+        <c:axId val="229159928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4615,7 +4616,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189866000"/>
+        <c:crossAx val="229159536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4711,6 +4712,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4834,11 +4836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189867176"/>
-        <c:axId val="189867568"/>
+        <c:axId val="229161104"/>
+        <c:axId val="229161496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189867176"/>
+        <c:axId val="229161104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,12 +4897,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189867568"/>
+        <c:crossAx val="229161496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189867568"/>
+        <c:axId val="229161496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4957,7 +4959,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189867176"/>
+        <c:crossAx val="229161104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5021,6 +5023,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5133,11 +5136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189868352"/>
-        <c:axId val="189868744"/>
+        <c:axId val="229162280"/>
+        <c:axId val="229162672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189868352"/>
+        <c:axId val="229162280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,12 +5197,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189868744"/>
+        <c:crossAx val="229162672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189868744"/>
+        <c:axId val="229162672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5256,7 +5259,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189868352"/>
+        <c:crossAx val="229162280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5320,6 +5323,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5486,11 +5490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189865608"/>
-        <c:axId val="189869528"/>
+        <c:axId val="229160712"/>
+        <c:axId val="229157968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189865608"/>
+        <c:axId val="229160712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,12 +5551,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189869528"/>
+        <c:crossAx val="229157968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189869528"/>
+        <c:axId val="229157968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,7 +5613,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189865608"/>
+        <c:crossAx val="229160712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5673,6 +5677,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5797,11 +5802,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189870312"/>
-        <c:axId val="189870704"/>
+        <c:axId val="229157184"/>
+        <c:axId val="229156792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189870312"/>
+        <c:axId val="229157184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5858,12 +5863,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189870704"/>
+        <c:crossAx val="229156792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189870704"/>
+        <c:axId val="229156792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5920,7 +5925,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189870312"/>
+        <c:crossAx val="229157184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15275,8 +15280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15838,7 +15843,7 @@
   <dimension ref="A1:X79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17585,10 +17590,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17627,6 +17632,15 @@
         <v>1.1323499472751401E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>D4*2*A2</f>
+        <v>0.80313518396000017</v>
+      </c>
+      <c r="D4">
+        <v>4660</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17637,7 +17651,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
